--- a/biology/Zoologie/Canard_musqué/Canard_musqué.xlsx
+++ b/biology/Zoologie/Canard_musqué/Canard_musqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_musqu%C3%A9</t>
+          <t>Canard_musqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cairina moschata
-Le Canard musqué (Cairina moschata), parfois dit canard muet, est une espèce d'oiseaux américains, des canards pêcheurs, dont est issue la race[1] domestique des « canards de Barbarie ». C'est la seule espèce du genre Cairina.
+Le Canard musqué (Cairina moschata), parfois dit canard muet, est une espèce d'oiseaux américains, des canards pêcheurs, dont est issue la race domestique des « canards de Barbarie ». C'est la seule espèce du genre Cairina.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_musqu%C3%A9</t>
+          <t>Canard_musqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Canard musqué est présent naturellement de l'Amérique du Sud jusqu'au Mexique ; il est présent en Guyane. Une petite population a atteint le Texas ; on le trouve également en Floride à l'état semi-sauvage, où il vit près des habitations. Sa domestication est aisée.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_musqu%C3%A9</t>
+          <t>Canard_musqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à la race domestique dont le plumage est clair, le Canard musqué à l'état sauvage est essentiellement noir, avec des taches blanches sur les ailes — néanmoins, les juvéniles en sont dépourvus. Comme tous les canards, il possède trois doigts reliés par une peau formant une palme lui permettant de nager aisément. Son quatrième doigt, opposé à la partie palmée de la patte, est si petit qu'il ne lui est pas d'une grande utilité. C'est la seule espèce de canard à disposer à la fois de palmures et de griffes.
 Le mâle mesure 86 cm de long en moyenne et pèse entre 2,1 et 3,2 kg. Son plumage foncé est coloré de belles irisations vertes ou roses, sur le dos et sur la poitrine.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canard_musqu%C3%A9</t>
+          <t>Canard_musqué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cane pond de huit à seize œufs, dans un trou d'arbre de préférence.
 Le sexe d'un jeune canard musqué n'est pas facile à déterminer, bien qu'il puisse l'être dès le premier jour par un professionnel qualifié.
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Canard_musqu%C3%A9</t>
+          <t>Canard_musqué</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Cri</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle ne fait pas le traditionnel coin coin mais une sorte de ha ha, sec et sourd. La cane émet un co très léger.
 </t>
